--- a/biology/Médecine/Ajmalicine/Ajmalicine.xlsx
+++ b/biology/Médecine/Ajmalicine/Ajmalicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’ajmalicine également connue sous le nom de δ-yohimbine ou raubasine, est un médicament antihypertenseur[2]. Il a été commercialisé sous de nombreuses marques, comme Card-Lamuran, Circolene, Cristanyl, Duxil, Duxor, Hydroxysarpon, Iskedyl, Isosarpan, Isquebral, Lamuran, Melanex, Saltucin Co, Salvalion et Sarpan[2].
-C'est également un alcaloïde naturellement présent dans diverses plantes telles que Rauwolfia spp., Catharanthus roseus et Mitragyna speciosa[2],[3],[4].
-L'ajmalicine est structurellement liée à la yohimbine, rauwolscine, et d'autres dérivés du yohimbe. Comme la corynanthine, elle agit comme un antagoniste des récepteurs α1-adrénergiques avec des actions préférentielles sur les récepteurs α2-adrénergiques, ce qui sous-tend qu'elle est plus hypotenseur qu'antihypertenseur[2],[5].
+L’ajmalicine également connue sous le nom de δ-yohimbine ou raubasine, est un médicament antihypertenseur. Il a été commercialisé sous de nombreuses marques, comme Card-Lamuran, Circolene, Cristanyl, Duxil, Duxor, Hydroxysarpon, Iskedyl, Isosarpan, Isquebral, Lamuran, Melanex, Saltucin Co, Salvalion et Sarpan.
+C'est également un alcaloïde naturellement présent dans diverses plantes telles que Rauwolfia spp., Catharanthus roseus et Mitragyna speciosa.
+L'ajmalicine est structurellement liée à la yohimbine, rauwolscine, et d'autres dérivés du yohimbe. Comme la corynanthine, elle agit comme un antagoniste des récepteurs α1-adrénergiques avec des actions préférentielles sur les récepteurs α2-adrénergiques, ce qui sous-tend qu'elle est plus hypotenseur qu'antihypertenseur,.
 </t>
         </is>
       </c>
